--- a/result_table_templates/SMSCC.xlsx
+++ b/result_table_templates/SMSCC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Field</t>
   </si>
@@ -142,6 +142,129 @@
   </si>
   <si>
     <t>time after stimulus offset (ms)</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>dataset_name</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>spot_sizes</t>
+  </si>
+  <si>
+    <t>sample_rate</t>
+  </si>
+  <si>
+    <t>pre_time_ms</t>
+  </si>
+  <si>
+    <t>stim_time_ms</t>
+  </si>
+  <si>
+    <t>tail_time_ms</t>
+  </si>
+  <si>
+    <t>n_epochs_per_size</t>
+  </si>
+  <si>
+    <t>peak_stim_mean</t>
+  </si>
+  <si>
+    <t>peak_tail_mean</t>
+  </si>
+  <si>
+    <t>peak_stim_sem</t>
+  </si>
+  <si>
+    <t>peak_tail_sem</t>
+  </si>
+  <si>
+    <t>mean_traces</t>
+  </si>
+  <si>
+    <t>example_traces</t>
+  </si>
+  <si>
+    <t>resting_potential_mean</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>file name from symphony</t>
+  </si>
+  <si>
+    <t>dataset name</t>
+  </si>
+  <si>
+    <t>source id used to identify the cell to which the dataset belongs</t>
+  </si>
+  <si>
+    <t>set of spot sizes (microns)</t>
+  </si>
+  <si>
+    <t>sample rate (Hz)</t>
+  </si>
+  <si>
+    <t>time before stimulus onset (ms)</t>
+  </si>
+  <si>
+    <t>stimulus presentation time (ms)</t>
+  </si>
+  <si>
+    <t>time after stimulus offset (ms)</t>
+  </si>
+  <si>
+    <t>vector with how many trials for each spot size</t>
+  </si>
+  <si>
+    <t>peak voltage in stim time, mean (mV)</t>
+  </si>
+  <si>
+    <t>peak voltage in tail time, mean (mV)</t>
+  </si>
+  <si>
+    <t>peak voltage in stim time, standard error of the mean (mV)</t>
+  </si>
+  <si>
+    <t>peak voltage in tail time, standard error of the mean (mV)</t>
+  </si>
+  <si>
+    <t>mean trace for each spot size</t>
+  </si>
+  <si>
+    <t>example trace for each spot size</t>
+  </si>
+  <si>
+    <t>mean resting potential across all spot sizes (mV)</t>
   </si>
 </sst>
 </file>
@@ -190,196 +313,196 @@
   <dimension ref="A1:C18"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="true"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true"/>
+    <col min="1" max="1" width="18" customWidth="true"/>
+    <col min="2" max="2" width="6.7109375" customWidth="true"/>
     <col min="3" max="3" width="56.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">

--- a/result_table_templates/SMSCC.xlsx
+++ b/result_table_templates/SMSCC.xlsx
@@ -13,136 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>dataset_name</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>entry_time</t>
-  </si>
-  <si>
-    <t>example_traces</t>
-  </si>
-  <si>
-    <t>mean_traces</t>
-  </si>
-  <si>
-    <t>n_epochs_per_size</t>
-  </si>
-  <si>
-    <t>peak_stim_mean</t>
-  </si>
-  <si>
-    <t>peak_stim_sem</t>
-  </si>
-  <si>
-    <t>peak_tail_mean</t>
-  </si>
-  <si>
-    <t>peak_tail_sem</t>
-  </si>
-  <si>
-    <t>pre_time_ms</t>
-  </si>
-  <si>
-    <t>resting_potential_mean</t>
-  </si>
-  <si>
-    <t>sample_rate</t>
-  </si>
-  <si>
-    <t>spot_sizes</t>
-  </si>
-  <si>
-    <t>stim_time_ms</t>
-  </si>
-  <si>
-    <t>tail_time_ms</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>file name from symphony</t>
-  </si>
-  <si>
-    <t>dataset name</t>
-  </si>
-  <si>
-    <t>source id used to identify the cell to which the dataset belongs</t>
-  </si>
-  <si>
-    <t>time the result was entered</t>
-  </si>
-  <si>
-    <t>example trace for each spot size</t>
-  </si>
-  <si>
-    <t>mean trace for each spot size</t>
-  </si>
-  <si>
-    <t>vector with how many trials for each spot size</t>
-  </si>
-  <si>
-    <t>peak voltage in stim time, mean (mV)</t>
-  </si>
-  <si>
-    <t>peak voltage in stim time, standard error of the mean (mV)</t>
-  </si>
-  <si>
-    <t>peak voltage in tail time, mean (mV)</t>
-  </si>
-  <si>
-    <t>peak voltage in tail time, standard error of the mean (mV)</t>
-  </si>
-  <si>
-    <t>time before stimulus onset (ms)</t>
-  </si>
-  <si>
-    <t>mean resting potential across all spot sizes (mV)</t>
-  </si>
-  <si>
-    <t>sample rate (Hz)</t>
-  </si>
-  <si>
-    <t>set of spot sizes (microns)</t>
-  </si>
-  <si>
-    <t>stimulus presentation time (ms)</t>
-  </si>
-  <si>
-    <t>time after stimulus offset (ms)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Field</t>
   </si>
@@ -310,7 +181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="true"/>
@@ -320,200 +191,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/result_table_templates/SMSCC.xlsx
+++ b/result_table_templates/SMSCC.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B9946-76FB-794B-9F82-85EC93E14CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="22200" yWindow="2860" windowWidth="60160" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -141,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -156,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -164,218 +171,527 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
-    <col min="3" max="3" width="56.42578125" customWidth="true"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result_table_templates/SMSCC.xlsx
+++ b/result_table_templates/SMSCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B9946-76FB-794B-9F82-85EC93E14CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D03CCD-5D8D-1348-A7BC-4BBD54478D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="2860" windowWidth="60160" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15700" yWindow="500" windowWidth="48420" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Field</t>
   </si>
@@ -143,16 +143,75 @@
   </si>
   <si>
     <t>mean resting potential across all spot sizes (mV)</t>
+  </si>
+  <si>
+    <t>spikes during stimulus time (note that automatic spike counting can add a few spikes when there are none)</t>
+  </si>
+  <si>
+    <t>sem of spike counts during stim</t>
+  </si>
+  <si>
+    <t>spikes during tail time (note that automatic spike counting can add a few spikes when there are none)</t>
+  </si>
+  <si>
+    <t>sem of spike counts during tail</t>
+  </si>
+  <si>
+    <t>response_duration_stim</t>
+  </si>
+  <si>
+    <t>duration that response stays above 50% of its maximum during stim time (s)</t>
+  </si>
+  <si>
+    <t>response_duration_tail</t>
+  </si>
+  <si>
+    <t>duration that response stays above 50% of its maximum during tail time (s)</t>
+  </si>
+  <si>
+    <t>spikes_stim_mean</t>
+  </si>
+  <si>
+    <t>spikes_stim_sem</t>
+  </si>
+  <si>
+    <t>spikes_tail_mean</t>
+  </si>
+  <si>
+    <t>spikes_tail_sem</t>
+  </si>
+  <si>
+    <t>baseline_rate_hz</t>
+  </si>
+  <si>
+    <t>baseline spike rate in pre time (Hz)</t>
+  </si>
+  <si>
+    <t>response_peak_time_stim</t>
+  </si>
+  <si>
+    <t>response_peak_time_tail</t>
+  </si>
+  <si>
+    <t>time of peak response during stim (s)</t>
+  </si>
+  <si>
+    <t>time of peak response during tail (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,8 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,17 +551,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="247" zoomScaleNormal="247" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="56.5" customWidth="1"/>
+    <col min="3" max="3" width="82.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,28 +730,128 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/result_table_templates/SMSCC.xlsx
+++ b/result_table_templates/SMSCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D03CCD-5D8D-1348-A7BC-4BBD54478D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C5F58-F3C5-284E-8EEF-09445BA45EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15700" yWindow="500" windowWidth="48420" windowHeight="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="247" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="247" zoomScaleNormal="247" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
